--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
@@ -43,46 +43,46 @@
     <definedName name="템플리트모듈5">BlankMacro1</definedName>
     <definedName name="템플리트모듈6">BlankMacro1</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>target</t>
+    <t>D5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x1</t>
+    <t>C5_F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x2</t>
+    <t>PN_F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x3</t>
+    <t>Reflux_F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x4</t>
+    <t>Reb_F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x5</t>
+    <t>BTM_F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x6</t>
+    <t>Feed_T</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x7</t>
+    <t>Reb_T</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x8</t>
+    <t>BTM_T</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +490,7 @@
   <dimension ref="A1:AI754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
